--- a/原始施工记录/13号楼/竣工资料/5.隐蔽工程验收记录2015.xlsx
+++ b/原始施工记录/13号楼/竣工资料/5.隐蔽工程验收记录2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23233" windowHeight="9583"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="第1页" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>施工单位：</t>
   </si>
   <si>
-    <t>江苏南通二建集团有限公司</t>
+    <t>山西六建集团有限公司</t>
   </si>
   <si>
     <t>编号:</t>
@@ -34,7 +34,7 @@
     <t>工程名称</t>
   </si>
   <si>
-    <t>大同七里村碧桂园二期桩基础工程1#楼</t>
+    <t>大同七里村碧桂园一期桩基础工程13#楼</t>
   </si>
   <si>
     <t>隐检项目</t>
@@ -75,10 +75,10 @@
   </si>
   <si>
     <t>1、钢材、水泥取样检验符合设计要求
-2、桩数594根，桩径均大于400 mm
+2、桩数540根，桩径均大于400 mm
 3、桩身垂直度、桩身强度符合施工规范的规定
 4、桩位偏差符合施工规范的规定
-5、有效桩长27m；
+5、有效桩长30m；
 6、桩身完整符合设计要求
 7、单桩承载力符合设计要求</t>
   </si>
@@ -116,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -172,110 +172,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,7 +194,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,9 +274,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,6 +319,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -343,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,16 +975,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,35 +998,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,6 +1033,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1071,141 +1062,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1765,17 +1765,17 @@
   <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+      <selection activeCell="A13" sqref="A13:AG16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14678899082569" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="2.85321100917431" customWidth="1"/>
-    <col min="3" max="3" width="3.71559633027523" customWidth="1"/>
-    <col min="4" max="19" width="2.85321100917431" customWidth="1"/>
-    <col min="20" max="20" width="4.14678899082569" customWidth="1"/>
-    <col min="21" max="32" width="2.85321100917431" customWidth="1"/>
-    <col min="33" max="33" width="3.43119266055046" customWidth="1"/>
+    <col min="1" max="2" width="2.85714285714286" customWidth="1"/>
+    <col min="3" max="3" width="3.71428571428571" customWidth="1"/>
+    <col min="4" max="19" width="2.85714285714286" customWidth="1"/>
+    <col min="20" max="20" width="4.14285714285714" customWidth="1"/>
+    <col min="21" max="32" width="2.85714285714286" customWidth="1"/>
+    <col min="33" max="33" width="3.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.6" customHeight="1" spans="1:33">
